--- a/public/files/template/inventory/lap_bhp_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengadaan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -303,17 +303,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -392,9 +381,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,6 +417,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +812,7 @@
   <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,25 +824,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -862,25 +851,25 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -986,123 +975,123 @@
       <c r="AR6" s="1"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="29" t="s">
+      <c r="E7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>42005</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="5">
         <v>2</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="5">
         <v>3</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="28">
         <v>42095</v>
       </c>
-      <c r="T7" s="30"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="5">
         <v>4</v>
       </c>
-      <c r="V7" s="27" t="s">
+      <c r="V7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="28"/>
+      <c r="W7" s="27"/>
       <c r="X7" s="6">
         <v>5</v>
       </c>
-      <c r="Y7" s="27" t="s">
+      <c r="Y7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="28"/>
+      <c r="Z7" s="27"/>
       <c r="AA7" s="6">
         <v>6</v>
       </c>
-      <c r="AB7" s="27" t="s">
+      <c r="AB7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="28"/>
+      <c r="AC7" s="27"/>
       <c r="AD7" s="7">
         <v>7</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="28"/>
+      <c r="AF7" s="27"/>
       <c r="AG7" s="7">
         <v>8</v>
       </c>
-      <c r="AH7" s="27">
+      <c r="AH7" s="26">
         <v>42248</v>
       </c>
-      <c r="AI7" s="28"/>
+      <c r="AI7" s="27"/>
       <c r="AJ7" s="7">
         <v>9</v>
       </c>
-      <c r="AK7" s="27" t="s">
+      <c r="AK7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AL7" s="28"/>
+      <c r="AL7" s="27"/>
       <c r="AM7" s="6">
         <v>10</v>
       </c>
-      <c r="AN7" s="27">
+      <c r="AN7" s="26">
         <v>42309</v>
       </c>
-      <c r="AO7" s="28"/>
+      <c r="AO7" s="27"/>
       <c r="AP7" s="7">
         <v>11</v>
       </c>
-      <c r="AQ7" s="27" t="s">
+      <c r="AQ7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AR7" s="28"/>
+      <c r="AR7" s="27"/>
       <c r="AS7" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1305,7 +1294,7 @@
       <c r="AS9" s="18"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="20" t="s">

--- a/public/files/template/inventory/lap_bhp_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengadaan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>No.</t>
   </si>
@@ -99,22 +99,76 @@
     <t>[a.jmlbaik]</t>
   </si>
   <si>
-    <t>[a.nilai_aset]</t>
-  </si>
-  <si>
-    <t>[a.harga_beli]</t>
-  </si>
-  <si>
-    <t>[a.jmlbeli]</t>
-  </si>
-  <si>
-    <t>[a.nilaibeli]</t>
-  </si>
-  <si>
     <t>dari [b.tgl1] s/d [b.tgl2]</t>
   </si>
   <si>
     <t>RIWAYAT PEMBELIAN / PENGADAAN [b.nama_puskesmas]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli1]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli1]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli12]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli12]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli10]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli10]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli9]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli9]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli8]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli8]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli7]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli7]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli6]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli6]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli5]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli5]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli4]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli4]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli3]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli3]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli2]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli2]</t>
   </si>
 </sst>
 </file>
@@ -381,45 +435,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,7 +866,7 @@
   <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,25 +878,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="A1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -851,25 +905,25 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="A2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -993,92 +1047,92 @@
       <c r="F7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>42005</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="29"/>
+      <c r="N7" s="28"/>
       <c r="O7" s="5">
         <v>2</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="5">
         <v>3</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>42095</v>
       </c>
-      <c r="T7" s="29"/>
+      <c r="T7" s="28"/>
       <c r="U7" s="5">
         <v>4</v>
       </c>
-      <c r="V7" s="26" t="s">
+      <c r="V7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="27"/>
+      <c r="W7" s="39"/>
       <c r="X7" s="6">
         <v>5</v>
       </c>
-      <c r="Y7" s="26" t="s">
+      <c r="Y7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="27"/>
+      <c r="Z7" s="39"/>
       <c r="AA7" s="6">
         <v>6</v>
       </c>
-      <c r="AB7" s="26" t="s">
+      <c r="AB7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="27"/>
+      <c r="AC7" s="39"/>
       <c r="AD7" s="7">
         <v>7</v>
       </c>
-      <c r="AE7" s="26" t="s">
+      <c r="AE7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="27"/>
+      <c r="AF7" s="39"/>
       <c r="AG7" s="7">
         <v>8</v>
       </c>
-      <c r="AH7" s="26">
+      <c r="AH7" s="38">
         <v>42248</v>
       </c>
-      <c r="AI7" s="27"/>
+      <c r="AI7" s="39"/>
       <c r="AJ7" s="7">
         <v>9</v>
       </c>
-      <c r="AK7" s="26" t="s">
+      <c r="AK7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AL7" s="27"/>
+      <c r="AL7" s="39"/>
       <c r="AM7" s="6">
         <v>10</v>
       </c>
-      <c r="AN7" s="26">
+      <c r="AN7" s="38">
         <v>42309</v>
       </c>
-      <c r="AO7" s="27"/>
+      <c r="AO7" s="39"/>
       <c r="AP7" s="7">
         <v>11</v>
       </c>
-      <c r="AQ7" s="26" t="s">
+      <c r="AQ7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AR7" s="27"/>
+      <c r="AR7" s="39"/>
       <c r="AS7" s="7">
         <v>12</v>
       </c>
@@ -1294,7 +1348,7 @@
       <c r="AS9" s="18"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1309,68 +1363,143 @@
       <c r="E10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>26</v>
+      <c r="F10" s="20" t="e">
+        <f>D10*E10</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="20" t="e">
+        <f>(G10*H10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
+      <c r="L10" s="20" t="e">
+        <f t="shared" ref="L10" si="0">(J10*K10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="20" t="e">
+        <f t="shared" ref="O10" si="1">(M10*N10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="20" t="e">
+        <f t="shared" ref="R10" si="2">(P10*Q10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="20" t="e">
+        <f t="shared" ref="U10" si="3">(S10*T10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="20" t="e">
+        <f t="shared" ref="X10" si="4">(V10*W10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="20" t="e">
+        <f t="shared" ref="AA10" si="5">(Y10*Z10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" s="20" t="e">
+        <f t="shared" ref="AD10" si="6">(AB10*AC10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG10" s="20" t="e">
+        <f t="shared" ref="AG10" si="7">(AE10*AF10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ10" s="20" t="e">
+        <f t="shared" ref="AJ10" si="8">(AH10*AI10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM10" s="20" t="e">
+        <f t="shared" ref="AM10" si="9">(AK10*AL10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP10" s="20" t="e">
+        <f t="shared" ref="AP10" si="10">(AN10*AO10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS10" s="20" t="e">
+        <f t="shared" ref="AS10" si="11">(AQ10*AR10)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="AK7:AL7"/>
     <mergeCell ref="AN7:AO7"/>
     <mergeCell ref="AQ7:AR7"/>
@@ -1380,6 +1509,17 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/template/inventory/lap_bhp_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengadaan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>No.</t>
   </si>
@@ -96,9 +96,6 @@
     <t>[a.harga_akhir]</t>
   </si>
   <si>
-    <t>[a.jmlbaik]</t>
-  </si>
-  <si>
     <t>dari [b.tgl1] s/d [b.tgl2]</t>
   </si>
   <si>
@@ -169,6 +166,48 @@
   </si>
   <si>
     <t>[a.harga_beli2]</t>
+  </si>
+  <si>
+    <t>[a.total1]</t>
+  </si>
+  <si>
+    <t>[a.total2]</t>
+  </si>
+  <si>
+    <t>[a.total3]</t>
+  </si>
+  <si>
+    <t>[a.total4]</t>
+  </si>
+  <si>
+    <t>[a.total5]</t>
+  </si>
+  <si>
+    <t>[a.total7]</t>
+  </si>
+  <si>
+    <t>[a.total6]</t>
+  </si>
+  <si>
+    <t>[a.total8]</t>
+  </si>
+  <si>
+    <t>[a.total12]</t>
+  </si>
+  <si>
+    <t>[a.total11]</t>
+  </si>
+  <si>
+    <t>[a.total10]</t>
+  </si>
+  <si>
+    <t>[a.total9]</t>
+  </si>
+  <si>
+    <t>[a.nilaiaset]</t>
+  </si>
+  <si>
+    <t>[a.totaljumlah]</t>
   </si>
 </sst>
 </file>
@@ -438,37 +477,37 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,37 +905,39 @@
   <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -905,25 +946,25 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="A2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1029,54 +1070,54 @@
       <c r="AR6" s="1"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="27">
+      <c r="J7" s="36">
         <v>42005</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="5">
         <v>2</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="5">
         <v>3</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="36">
         <v>42095</v>
       </c>
-      <c r="T7" s="28"/>
+      <c r="T7" s="37"/>
       <c r="U7" s="5">
         <v>4</v>
       </c>
@@ -1138,14 +1179,14 @@
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1361,141 +1402,127 @@
         <v>24</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="20" t="e">
-        <f>D10*E10</f>
-        <v>#VALUE!</v>
+        <v>62</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="G10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="20" t="e">
-        <f>(G10*H10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="20" t="e">
-        <f t="shared" ref="L10" si="0">(J10*K10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="20" t="e">
-        <f t="shared" ref="O10" si="1">(M10*N10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="20" t="e">
-        <f t="shared" ref="R10" si="2">(P10*Q10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" s="20" t="e">
-        <f t="shared" ref="U10" si="3">(S10*T10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="20" t="e">
-        <f t="shared" ref="X10" si="4">(V10*W10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA10" s="20" t="e">
-        <f t="shared" ref="AA10" si="5">(Y10*Z10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD10" s="20" t="e">
-        <f t="shared" ref="AD10" si="6">(AB10*AC10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG10" s="20" t="e">
-        <f t="shared" ref="AG10" si="7">(AE10*AF10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ10" s="20" t="e">
-        <f t="shared" ref="AJ10" si="8">(AH10*AI10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM10" s="20" t="e">
-        <f t="shared" ref="AM10" si="9">(AK10*AL10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP10" s="20" t="e">
-        <f t="shared" ref="AP10" si="10">(AN10*AO10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ10" s="20" t="s">
+      <c r="AR10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AR10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS10" s="20" t="e">
-        <f t="shared" ref="AS10" si="11">(AQ10*AR10)</f>
-        <v>#VALUE!</v>
+      <c r="AS10" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/template/inventory/lap_bhp_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengadaan.xlsx
@@ -905,7 +905,7 @@
   <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/template/inventory/lap_bhp_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengadaan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>No.</t>
   </si>
@@ -42,30 +47,6 @@
     <t>31-12-2014</t>
   </si>
   <si>
-    <t>Februari 2015</t>
-  </si>
-  <si>
-    <t>Maret 2015</t>
-  </si>
-  <si>
-    <t>Mei 2015</t>
-  </si>
-  <si>
-    <t>Juni 2015</t>
-  </si>
-  <si>
-    <t>Juli 2015</t>
-  </si>
-  <si>
-    <t>Agust 2015</t>
-  </si>
-  <si>
-    <t>Okt 2015</t>
-  </si>
-  <si>
-    <t>Des 2015</t>
-  </si>
-  <si>
     <t>HARGA</t>
   </si>
   <si>
@@ -120,100 +101,142 @@
     <t>[a.jmlbeli10]</t>
   </si>
   <si>
+    <t>[a.total1]</t>
+  </si>
+  <si>
+    <t>[a.total12]</t>
+  </si>
+  <si>
+    <t>[a.total11]</t>
+  </si>
+  <si>
+    <t>[a.total10]</t>
+  </si>
+  <si>
+    <t>[a.nilaiaset]</t>
+  </si>
+  <si>
+    <t>[a.totaljumlah]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Januari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Februari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maret </t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Desember</t>
+  </si>
+  <si>
+    <t>[a.harga_beli2]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli2]</t>
+  </si>
+  <si>
+    <t>[a.total2]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli3]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli3]</t>
+  </si>
+  <si>
+    <t>[a.total3]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli4]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli4]</t>
+  </si>
+  <si>
+    <t>[a.total4]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli5]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli5]</t>
+  </si>
+  <si>
+    <t>[a.total5]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli6]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli6]</t>
+  </si>
+  <si>
+    <t>[a.total6]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli7]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli7]</t>
+  </si>
+  <si>
+    <t>[a.total7]</t>
+  </si>
+  <si>
+    <t>[a.harga_beli8]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli8]</t>
+  </si>
+  <si>
+    <t>[a.total8]</t>
+  </si>
+  <si>
     <t>[a.jmlbeli9]</t>
   </si>
   <si>
     <t>[a.harga_beli9]</t>
   </si>
   <si>
-    <t>[a.jmlbeli8]</t>
-  </si>
-  <si>
-    <t>[a.harga_beli8]</t>
-  </si>
-  <si>
-    <t>[a.jmlbeli7]</t>
-  </si>
-  <si>
-    <t>[a.harga_beli7]</t>
-  </si>
-  <si>
-    <t>[a.jmlbeli6]</t>
-  </si>
-  <si>
-    <t>[a.harga_beli6]</t>
-  </si>
-  <si>
-    <t>[a.jmlbeli5]</t>
-  </si>
-  <si>
-    <t>[a.harga_beli5]</t>
-  </si>
-  <si>
-    <t>[a.jmlbeli4]</t>
-  </si>
-  <si>
-    <t>[a.harga_beli4]</t>
-  </si>
-  <si>
-    <t>[a.jmlbeli3]</t>
-  </si>
-  <si>
-    <t>[a.harga_beli3]</t>
-  </si>
-  <si>
-    <t>[a.jmlbeli2]</t>
-  </si>
-  <si>
-    <t>[a.harga_beli2]</t>
-  </si>
-  <si>
-    <t>[a.total1]</t>
-  </si>
-  <si>
-    <t>[a.total2]</t>
-  </si>
-  <si>
-    <t>[a.total3]</t>
-  </si>
-  <si>
-    <t>[a.total4]</t>
-  </si>
-  <si>
-    <t>[a.total5]</t>
-  </si>
-  <si>
-    <t>[a.total7]</t>
-  </si>
-  <si>
-    <t>[a.total6]</t>
-  </si>
-  <si>
-    <t>[a.total8]</t>
-  </si>
-  <si>
-    <t>[a.total12]</t>
-  </si>
-  <si>
-    <t>[a.total11]</t>
-  </si>
-  <si>
-    <t>[a.total10]</t>
-  </si>
-  <si>
     <t>[a.total9]</t>
   </si>
   <si>
-    <t>[a.nilaiaset]</t>
-  </si>
-  <si>
-    <t>[a.totaljumlah]</t>
+    <t>[a.harga_beli11]</t>
+  </si>
+  <si>
+    <t>[a.jmlbeli11]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +266,7 @@
     <font>
       <sz val="6"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -477,6 +500,18 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,18 +537,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,6 +546,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -658,7 +684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,9 +717,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,6 +769,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,25 +979,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -946,25 +1006,25 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="A2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -980,10 +1040,10 @@
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H3" s="21"/>
       <c r="J3" s="21"/>
@@ -1004,10 +1064,10 @@
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H4" s="21"/>
       <c r="J4" s="21"/>
@@ -1028,10 +1088,10 @@
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H5" s="21"/>
       <c r="J5" s="21"/>
@@ -1070,209 +1130,209 @@
       <c r="AR6" s="1"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="36">
-        <v>42005</v>
-      </c>
-      <c r="K7" s="37"/>
+      <c r="J7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="30"/>
       <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="37"/>
+      <c r="M7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="30"/>
       <c r="O7" s="5">
         <v>2</v>
       </c>
-      <c r="P7" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="37"/>
+      <c r="P7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="30"/>
       <c r="R7" s="5">
         <v>3</v>
       </c>
-      <c r="S7" s="36">
-        <v>42095</v>
-      </c>
-      <c r="T7" s="37"/>
+      <c r="S7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="30"/>
       <c r="U7" s="5">
         <v>4</v>
       </c>
-      <c r="V7" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="39"/>
+      <c r="V7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="28"/>
       <c r="X7" s="6">
         <v>5</v>
       </c>
-      <c r="Y7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="39"/>
+      <c r="Y7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="28"/>
       <c r="AA7" s="6">
         <v>6</v>
       </c>
-      <c r="AB7" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC7" s="39"/>
+      <c r="AB7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="28"/>
       <c r="AD7" s="7">
         <v>7</v>
       </c>
-      <c r="AE7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF7" s="39"/>
+      <c r="AE7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="28"/>
       <c r="AG7" s="7">
         <v>8</v>
       </c>
-      <c r="AH7" s="38">
-        <v>42248</v>
-      </c>
-      <c r="AI7" s="39"/>
+      <c r="AH7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="28"/>
       <c r="AJ7" s="7">
         <v>9</v>
       </c>
-      <c r="AK7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL7" s="39"/>
+      <c r="AK7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL7" s="28"/>
       <c r="AM7" s="6">
         <v>10</v>
       </c>
-      <c r="AN7" s="38">
-        <v>42309</v>
-      </c>
-      <c r="AO7" s="39"/>
+      <c r="AN7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO7" s="28"/>
       <c r="AP7" s="7">
         <v>11</v>
       </c>
-      <c r="AQ7" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR7" s="39"/>
+      <c r="AQ7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR7" s="28"/>
       <c r="AS7" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="R8" s="11"/>
       <c r="S8" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="U8" s="11"/>
       <c r="V8" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="AA8" s="13"/>
       <c r="AB8" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AI8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AL8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="AM8" s="13"/>
       <c r="AN8" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AO8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="AP8" s="13"/>
       <c r="AQ8" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AR8" s="14" t="s">
         <v>4</v>
@@ -1390,152 +1450,143 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P10" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="V10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="W10" s="20" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AA10" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AC10" s="20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AD10" s="20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AF10" s="20" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AG10" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AH10" s="20" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="AJ10" s="20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AK10" s="20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="AL10" s="20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AM10" s="20" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="AN10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AO10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP10" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="AQ10" s="20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AR10" s="20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AS10" s="20" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AH7:AI7"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1547,8 +1598,18 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AH7:AI7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
